--- a/SuppXLS/Scen_UC_MANCOALMIN.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC7AF02-6FF2-4EA8-B0E6-02385A33D7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128C2605-B77B-41CB-8452-57C8512C4FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_MANCOALMIN.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128C2605-B77B-41CB-8452-57C8512C4FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38893E2D-47B2-4218-A155-E3C75B539B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_MANCOALMIN.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38893E2D-47B2-4218-A155-E3C75B539B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E42334-76EA-4A83-8232-A14C1BB65650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -74,21 +74,12 @@
     <t>UC - Each Region/Period</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t>~UC_T:UC_RHSRTS</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>MANCOALMIN</t>
-  </si>
-  <si>
-    <t>UC_CEMENTHEAT_UP</t>
-  </si>
-  <si>
     <t>DMD</t>
   </si>
   <si>
@@ -101,7 +92,19 @@
     <t>UC_RHSRTS</t>
   </si>
   <si>
-    <t>Maximum penetration of domestic Coal</t>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>MANCOALIMP</t>
+  </si>
+  <si>
+    <t>Minimum penetration of domestic Coal</t>
+  </si>
+  <si>
+    <t>UC_CEMENTHEAT_LOW</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS~0</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -220,6 +223,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,34 +547,34 @@
     <col min="8" max="9" width="11.109375" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -599,86 +603,97 @@
         <v>9</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
       </c>
       <c r="I6">
         <v>2022</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" s="10">
-        <v>-0.59</v>
-      </c>
-      <c r="M6">
+        <v>-0.41</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>15</v>
       </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
       </c>
       <c r="I7">
         <v>2050</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" s="10">
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-0.25</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L11" s="8"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="M11" s="8"/>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -686,8 +701,9 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -701,8 +717,9 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -716,8 +733,9 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -731,8 +749,9 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -746,8 +765,9 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -755,25 +775,25 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
       <c r="G32" s="8"/>
-      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="8"/>

--- a/SuppXLS/Scen_UC_MANCOALMIN.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E42334-76EA-4A83-8232-A14C1BB65650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A180CC-19F8-4881-8E8F-2DF04F2DF280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>UC - Each Region/Period</t>
   </si>
   <si>
-    <t>~UC_T:UC_RHSRTS</t>
-  </si>
-  <si>
     <t>ETH</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>UC_RHSRTS~0</t>
+  </si>
+  <si>
+    <t>~UC_T:UC_COMPRD</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +571,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -603,16 +603,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="N5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>11</v>
@@ -620,22 +620,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
       </c>
       <c r="I6">
         <v>2022</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -650,24 +650,24 @@
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
       </c>
       <c r="I7">
         <v>2050</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>1</v>

--- a/SuppXLS/Scen_UC_MANCOALMIN.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E14990-471A-41DE-A338-87AB71F0BAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED3A5A9-5055-401E-AEB9-95C38F1F5E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>UC_N</t>
   </si>
@@ -80,12 +80,6 @@
     <t>UC_FLO</t>
   </si>
   <si>
-    <t>UC_RHSRTS</t>
-  </si>
-  <si>
-    <t>UC_RHSRTS~0</t>
-  </si>
-  <si>
     <t>~UC_T:UC_COMPRD</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>~UC_Sets: R_E: ETH</t>
   </si>
   <si>
-    <t>ETH</t>
-  </si>
-  <si>
     <t>MANCOALMIN</t>
   </si>
   <si>
@@ -108,6 +99,9 @@
   </si>
   <si>
     <t>UC_CEMENTHEAT_MANCOALMIN_UP</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
   </si>
 </sst>
 </file>
@@ -207,17 +201,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -526,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,34 +538,32 @@
     <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,212 +594,180 @@
       <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>2022</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>-0.59</v>
       </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>15</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7">
         <v>2050</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>-0.75</v>
       </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L8" s="10"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="G32" s="7"/>
-      <c r="P32" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="G32" s="6"/>
+      <c r="N32" s="6"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="7"/>
+      <c r="G33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/SuppXLS/Scen_UC_MANCOALMIN.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED3A5A9-5055-401E-AEB9-95C38F1F5E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C3BB0C-AD5B-43C3-AA16-96BF008350E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>UC_COMPRD</t>
   </si>
   <si>
-    <t>~UC_Sets: R_E: ETH</t>
-  </si>
-  <si>
     <t>MANCOALMIN</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>AllRegions</t>
+  </si>
+  <si>
+    <t>~UC_Sets: R_E: AllRegions</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>10</v>
@@ -603,13 +603,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -621,7 +621,7 @@
         <v>2022</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -630,18 +630,18 @@
         <v>-0.59</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -653,7 +653,7 @@
         <v>2050</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>1</v>

--- a/SuppXLS/Scen_UC_MANCOALMIN.xlsx
+++ b/SuppXLS/Scen_UC_MANCOALMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C3BB0C-AD5B-43C3-AA16-96BF008350E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75569F7E-AC93-47CE-898F-C19A3A7653D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +611,7 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
@@ -643,7 +643,7 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
